--- a/hh/vtop3/source_img/screenshot/расчет px.xlsx
+++ b/hh/vtop3/source_img/screenshot/расчет px.xlsx
@@ -362,30 +362,30 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>32</v>
+        <v>545</v>
       </c>
       <c r="B1" s="1">
-        <v>40</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>35</v>
+        <v>1180.7339449541284</v>
       </c>
     </row>
   </sheetData>

--- a/hh/vtop3/source_img/screenshot/расчет px.xlsx
+++ b/hh/vtop3/source_img/screenshot/расчет px.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,11 +381,11 @@
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>1180.7339449541284</v>
+        <v>590.36697247706422</v>
       </c>
     </row>
   </sheetData>

--- a/hh/vtop3/source_img/screenshot/расчет px.xlsx
+++ b/hh/vtop3/source_img/screenshot/расчет px.xlsx
@@ -381,11 +381,11 @@
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>590.36697247706422</v>
+        <v>708.44036697247702</v>
       </c>
     </row>
   </sheetData>
